--- a/biology/Zoologie/Blennie_fluviatile/Blennie_fluviatile.xlsx
+++ b/biology/Zoologie/Blennie_fluviatile/Blennie_fluviatile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Salaria fluviatilis
 La Blennie fluviatile (Salaria fluviatilis)  est un poisson de la famille des Blenniidés qui vit dans les eaux douces des bassins versants tributaires de la mer Méditerranée, entre le Guadiana (en Espagne et Portugal) pour sa limite occidentale et le Jourdain pour sa limite orientale. On le trouve aussi sur les îles méditerranéennes comme en Corse. Cette blennie est principalement dulçaquicole contrairement aux autres espèces de sa famille qui sont marines (il y a une vingtaine d'espèces marines de blennies dans la mer Méditerranée). 
-En France, sa limite nord historique est le lac du Bourget, mais elle a été introduite dans le lac d'Annecy, et on la trouve depuis 2010 dans le lac Léman, où elle est désormais abondante dans les rochers à de très faibles profondeurs. Elle a aussi colonisé la Saône bourguignonne où elle a été repérée lors de pêches organisées par l'OFB (Office Français de la Biodiversité). L'OFB, se fondant sur des témoignages de pêcheurs, estime qu'elle est arrivée en Saône en 2018-2019[1]. Elle s'est répandue dans la Garonne à partir du XIXe siècle après avoir colonisé le canal du Midi.
+En France, sa limite nord historique est le lac du Bourget, mais elle a été introduite dans le lac d'Annecy, et on la trouve depuis 2010 dans le lac Léman, où elle est désormais abondante dans les rochers à de très faibles profondeurs. Elle a aussi colonisé la Saône bourguignonne où elle a été repérée lors de pêches organisées par l'OFB (Office Français de la Biodiversité). L'OFB, se fondant sur des témoignages de pêcheurs, estime qu'elle est arrivée en Saône en 2018-2019. Elle s'est répandue dans la Garonne à partir du XIXe siècle après avoir colonisé le canal du Midi.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Origine du nom : du grec « blenna » ce qui signifie mucus.
 Description : le corps est allongé. Elle mesure de 25 à 12 cm. Elle est de couleur brun-vert, ses flancs étant jaune-vert avec des points noirs. La nageoire dorsale est très longue. La peau sans écailles est visqueuse. Ses mâchoires sont pourvues de dents puissantes.
@@ -547,9 +561,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est l'une des espèces qui peut contribuer à transporter (dans ses branchies) des larves de moules d'eau douce (Margaritifera auricularia)[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est l'une des espèces qui peut contribuer à transporter (dans ses branchies) des larves de moules d'eau douce (Margaritifera auricularia).
 </t>
         </is>
       </c>
